--- a/Results/Lm_SAR_Results.xlsx
+++ b/Results/Lm_SAR_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Friederike\Documents\GitHub\FruitsAfrica\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7946DF67-2E76-4ED4-8621-680CE20C759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B34E3-CF13-47F5-A41B-2104DE1307C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="18195" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
+    <workbookView xWindow="-28920" yWindow="-5700" windowWidth="29040" windowHeight="16440" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,8 +354,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -430,9 +431,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -747,87 +746,88 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEBEE6-A5BD-4D33-B188-53E40F35F757}">
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:R103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="7" max="7" width="9.06640625" style="7"/>
+    <col min="11" max="11" width="9.06640625" style="7"/>
+    <col min="12" max="12" width="23.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A8" s="9"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8" s="1"/>
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
@@ -843,23 +843,23 @@
       <c r="E10" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I10" t="s">
+      <c r="M10" t="s">
         <v>29</v>
       </c>
-      <c r="J10" t="s">
+      <c r="N10" t="s">
         <v>30</v>
       </c>
-      <c r="K10" t="s">
+      <c r="O10" t="s">
         <v>31</v>
       </c>
-      <c r="L10" t="s">
+      <c r="P10" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>-0.32522000000000001</v>
       </c>
@@ -875,35 +875,35 @@
       <c r="E11" s="4">
         <v>0.49635000000000001</v>
       </c>
-      <c r="H11" s="2">
+      <c r="L11" s="2">
         <v>-0.42215000000000003</v>
       </c>
-      <c r="I11">
+      <c r="M11">
         <v>-8.6120000000000002E-2</v>
       </c>
-      <c r="J11">
+      <c r="N11">
         <v>1.7500000000000002E-2</v>
       </c>
-      <c r="K11">
+      <c r="O11">
         <v>8.8279999999999997E-2</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>0.33950000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12" s="1"/>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="2"/>
       <c r="B14" s="4" t="s">
         <v>14</v>
@@ -917,21 +917,21 @@
       <c r="E14" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" t="s">
+      <c r="L14" s="2"/>
+      <c r="M14" t="s">
         <v>14</v>
       </c>
-      <c r="J14" t="s">
+      <c r="N14" t="s">
         <v>15</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>16</v>
       </c>
-      <c r="L14" t="s">
+      <c r="P14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="2" t="s">
         <v>18</v>
       </c>
@@ -944,32 +944,32 @@
       <c r="D15" s="4">
         <v>2.0430000000000001</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="8">
         <v>4.3540000000000002E-2</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="4">
+      <c r="M15" s="4">
         <v>0.58638000000000001</v>
       </c>
-      <c r="J15" s="4">
+      <c r="N15" s="4">
         <v>0.15695000000000001</v>
       </c>
-      <c r="K15" s="4">
+      <c r="O15" s="4">
         <v>3.7360000000000002</v>
       </c>
-      <c r="L15" s="4">
+      <c r="P15" s="9">
         <v>3.0200000000000002E-4</v>
       </c>
-      <c r="M15" t="s">
+      <c r="Q15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="2" t="s">
         <v>20</v>
       </c>
@@ -982,29 +982,29 @@
       <c r="D16" s="4">
         <v>0.98199999999999998</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="8">
         <v>0.32844000000000001</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="4">
+      <c r="M16" s="4">
         <v>0.29586000000000001</v>
       </c>
-      <c r="J16" s="4">
+      <c r="N16" s="4">
         <v>8.0589999999999995E-2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="O16" s="4">
         <v>3.6709999999999998</v>
       </c>
-      <c r="L16" s="4">
+      <c r="P16" s="9">
         <v>3.79E-4</v>
       </c>
-      <c r="M16" t="s">
+      <c r="Q16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -1017,29 +1017,29 @@
       <c r="D17" s="4">
         <v>2.1139999999999999</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="8">
         <v>3.6839999999999998E-2</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I17" s="4">
+      <c r="M17" s="4">
         <v>-3.7589999999999998E-2</v>
       </c>
-      <c r="J17" s="4">
+      <c r="N17" s="4">
         <v>0.11276</v>
       </c>
-      <c r="K17" s="4">
+      <c r="O17" s="4">
         <v>-0.33300000000000002</v>
       </c>
-      <c r="L17" s="4">
+      <c r="P17" s="9">
         <v>0.73952200000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1052,29 +1052,29 @@
       <c r="D18" s="4">
         <v>2.823</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="8">
         <v>5.6800000000000002E-3</v>
       </c>
       <c r="F18" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="4">
+      <c r="M18" s="4">
         <v>0.11214</v>
       </c>
-      <c r="J18" s="4">
+      <c r="N18" s="4">
         <v>9.9879999999999997E-2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>1.123</v>
       </c>
-      <c r="L18" s="4">
+      <c r="P18" s="9">
         <v>0.26402799999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A19" s="2" t="s">
         <v>23</v>
       </c>
@@ -1087,26 +1087,26 @@
       <c r="D19" s="4">
         <v>0.17100000000000001</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="8">
         <v>0.86458000000000002</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I19" s="4">
+      <c r="M19" s="4">
         <v>3.8929999999999999E-2</v>
       </c>
-      <c r="J19" s="4">
+      <c r="N19" s="4">
         <v>0.11642</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>0.33400000000000002</v>
       </c>
-      <c r="L19" s="4">
+      <c r="P19" s="9">
         <v>0.73875900000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
@@ -1119,32 +1119,32 @@
       <c r="D20" s="4">
         <v>-3.2229999999999999</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="8">
         <v>1.6800000000000001E-3</v>
       </c>
       <c r="F20" t="s">
         <v>19</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I20" s="4">
+      <c r="M20" s="4">
         <v>-0.25158999999999998</v>
       </c>
-      <c r="J20" s="4">
+      <c r="N20" s="4">
         <v>9.8629999999999995E-2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>-2.5510000000000002</v>
       </c>
-      <c r="L20" s="4">
+      <c r="P20" s="9">
         <v>1.2154999999999999E-2</v>
       </c>
-      <c r="M20" t="s">
+      <c r="Q20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
@@ -1157,32 +1157,32 @@
       <c r="D21" s="4">
         <v>2.0590000000000002</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="8">
         <v>4.19E-2</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I21" s="4">
+      <c r="M21" s="4">
         <v>0.29465000000000002</v>
       </c>
-      <c r="J21" s="4">
+      <c r="N21" s="4">
         <v>0.11082</v>
       </c>
-      <c r="K21" s="4">
+      <c r="O21" s="4">
         <v>2.6589999999999998</v>
       </c>
-      <c r="L21" s="4">
+      <c r="P21" s="9">
         <v>9.0430000000000007E-3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="Q21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>26</v>
       </c>
@@ -1195,26 +1195,26 @@
       <c r="D22" s="4">
         <v>1.1919999999999999</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="8">
         <v>0.23596</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="4">
+      <c r="M22" s="4">
         <v>-1.6619999999999999E-2</v>
       </c>
-      <c r="J22" s="4">
+      <c r="N22" s="4">
         <v>0.14108000000000001</v>
       </c>
-      <c r="K22" s="4">
+      <c r="O22" s="4">
         <v>-0.11799999999999999</v>
       </c>
-      <c r="L22" s="4">
+      <c r="P22" s="9">
         <v>0.90641700000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A23" s="2" t="s">
         <v>27</v>
       </c>
@@ -1227,26 +1227,26 @@
       <c r="D23" s="4">
         <v>-1.28</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="8">
         <v>0.20322999999999999</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="4">
+      <c r="M23" s="4">
         <v>-4.861E-2</v>
       </c>
-      <c r="J23" s="4">
+      <c r="N23" s="4">
         <v>0.12087000000000001</v>
       </c>
-      <c r="K23" s="4">
+      <c r="O23" s="4">
         <v>-0.40200000000000002</v>
       </c>
-      <c r="L23" s="4">
+      <c r="P23" s="9">
         <v>0.68835299999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
@@ -1259,26 +1259,26 @@
       <c r="D24" s="4">
         <v>0.63700000000000001</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="8">
         <v>0.52522999999999997</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I24" s="4">
+      <c r="M24" s="4">
         <v>-0.24137</v>
       </c>
-      <c r="J24" s="4">
+      <c r="N24" s="4">
         <v>0.23602999999999999</v>
       </c>
-      <c r="K24" s="4">
+      <c r="O24" s="4">
         <v>-1.0229999999999999</v>
       </c>
-      <c r="L24" s="4">
+      <c r="P24" s="9">
         <v>0.30880200000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
@@ -1291,149 +1291,149 @@
       <c r="D25" s="4">
         <v>0.222</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="8">
         <v>0.82511000000000001</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="4">
+      <c r="M25" s="4">
         <v>-2.308E-2</v>
       </c>
-      <c r="J25" s="4">
+      <c r="N25" s="4">
         <v>0.26712000000000002</v>
       </c>
-      <c r="K25" s="4">
+      <c r="O25" s="4">
         <v>-8.5999999999999993E-2</v>
       </c>
-      <c r="L25" s="4">
+      <c r="P25" s="9">
         <v>0.93130500000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="L26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="9"/>
-      <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A28" s="1"/>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="L32" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>36</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A35" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A41" s="9"/>
-      <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A41" s="1"/>
+      <c r="L41" s="1"/>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>28</v>
       </c>
@@ -1449,23 +1449,23 @@
       <c r="E43" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="L43" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="I43" t="s">
+      <c r="M43" t="s">
         <v>29</v>
       </c>
-      <c r="J43" t="s">
+      <c r="N43" t="s">
         <v>30</v>
       </c>
-      <c r="K43" t="s">
+      <c r="O43" t="s">
         <v>31</v>
       </c>
-      <c r="L43" t="s">
+      <c r="P43" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A44" s="2">
         <v>-0.32085000000000002</v>
       </c>
@@ -1481,38 +1481,38 @@
       <c r="E44" s="4">
         <v>0.49648999999999999</v>
       </c>
-      <c r="H44" s="2">
+      <c r="L44" s="2">
         <v>-0.43992999999999999</v>
       </c>
-      <c r="I44">
+      <c r="M44">
         <v>-8.6709999999999995E-2</v>
       </c>
-      <c r="J44">
+      <c r="N44">
         <v>1.272E-2</v>
       </c>
-      <c r="K44">
+      <c r="O44">
         <v>9.5350000000000004E-2</v>
       </c>
-      <c r="L44">
+      <c r="P44">
         <v>0.33600000000000002</v>
       </c>
-      <c r="N44" t="s">
+      <c r="R44" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.45">
+      <c r="A45" s="1"/>
+      <c r="L45" s="1"/>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>14</v>
@@ -1526,21 +1526,21 @@
       <c r="E47" t="s">
         <v>17</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" t="s">
+      <c r="L47" s="2"/>
+      <c r="M47" t="s">
         <v>14</v>
       </c>
-      <c r="J47" t="s">
+      <c r="N47" t="s">
         <v>15</v>
       </c>
-      <c r="K47" t="s">
+      <c r="O47" t="s">
         <v>16</v>
       </c>
-      <c r="L47" t="s">
+      <c r="P47" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A48" s="2" t="s">
         <v>18</v>
       </c>
@@ -1559,26 +1559,26 @@
       <c r="F48" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I48" s="4">
+      <c r="M48" s="4">
         <v>0.59400799999999998</v>
       </c>
-      <c r="J48" s="4">
+      <c r="N48" s="4">
         <v>0.15370500000000001</v>
       </c>
-      <c r="K48" s="4">
+      <c r="O48" s="4">
         <v>3.8650000000000002</v>
       </c>
-      <c r="L48" s="4">
+      <c r="P48" s="4">
         <v>1.8900000000000001E-4</v>
       </c>
-      <c r="M48" t="s">
+      <c r="Q48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A49" s="2" t="s">
         <v>79</v>
       </c>
@@ -1597,23 +1597,23 @@
       <c r="F49" t="s">
         <v>35</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="L49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I49" s="4">
+      <c r="M49" s="4">
         <v>-7.3241000000000001E-2</v>
       </c>
-      <c r="J49" s="4">
+      <c r="N49" s="4">
         <v>4.5242999999999998E-2</v>
       </c>
-      <c r="K49" s="4">
+      <c r="O49" s="4">
         <v>-1.619</v>
       </c>
-      <c r="L49" s="4">
+      <c r="P49" s="4">
         <v>0.108374</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A50" s="2" t="s">
         <v>20</v>
       </c>
@@ -1629,26 +1629,26 @@
       <c r="E50" s="4">
         <v>0.19336</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I50" s="4">
+      <c r="M50" s="4">
         <v>0.26607799999999998</v>
       </c>
-      <c r="J50" s="4">
+      <c r="N50" s="4">
         <v>7.5625999999999999E-2</v>
       </c>
-      <c r="K50" s="4">
+      <c r="O50" s="4">
         <v>3.5179999999999998</v>
       </c>
-      <c r="L50" s="4">
+      <c r="P50" s="4">
         <v>6.3500000000000004E-4</v>
       </c>
-      <c r="M50" t="s">
+      <c r="Q50" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A51" s="2" t="s">
         <v>22</v>
       </c>
@@ -1667,23 +1667,23 @@
       <c r="F51" t="s">
         <v>19</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I51" s="4">
+      <c r="M51" s="4">
         <v>9.0471999999999997E-2</v>
       </c>
-      <c r="J51" s="4">
+      <c r="N51" s="4">
         <v>9.1942999999999997E-2</v>
       </c>
-      <c r="K51" s="4">
+      <c r="O51" s="4">
         <v>0.98399999999999999</v>
       </c>
-      <c r="L51" s="4">
+      <c r="P51" s="4">
         <v>0.32729200000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A52" s="2" t="s">
         <v>23</v>
       </c>
@@ -1699,23 +1699,23 @@
       <c r="E52" s="4">
         <v>0.72816000000000003</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I52" s="4">
+      <c r="M52" s="4">
         <v>8.5310000000000004E-3</v>
       </c>
-      <c r="J52" s="4">
+      <c r="N52" s="4">
         <v>0.112287</v>
       </c>
-      <c r="K52" s="4">
+      <c r="O52" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="L52" s="4">
+      <c r="P52" s="4">
         <v>0.93957599999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A53" s="2" t="s">
         <v>24</v>
       </c>
@@ -1734,26 +1734,26 @@
       <c r="F53" t="s">
         <v>19</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I53" s="4">
+      <c r="M53" s="4">
         <v>-0.24893599999999999</v>
       </c>
-      <c r="J53" s="4">
+      <c r="N53" s="4">
         <v>9.8018999999999995E-2</v>
       </c>
-      <c r="K53" s="4">
+      <c r="O53" s="4">
         <v>-2.54</v>
       </c>
-      <c r="L53" s="4">
+      <c r="P53" s="4">
         <v>1.2506E-2</v>
       </c>
-      <c r="M53" t="s">
+      <c r="Q53" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A54" s="2" t="s">
         <v>25</v>
       </c>
@@ -1772,26 +1772,26 @@
       <c r="F54" t="s">
         <v>21</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I54" s="4">
+      <c r="M54" s="4">
         <v>0.28127799999999997</v>
       </c>
-      <c r="J54" s="4">
+      <c r="N54" s="4">
         <v>0.10945299999999999</v>
       </c>
-      <c r="K54" s="4">
+      <c r="O54" s="4">
         <v>2.57</v>
       </c>
-      <c r="L54" s="4">
+      <c r="P54" s="4">
         <v>1.1525000000000001E-2</v>
       </c>
-      <c r="M54" t="s">
+      <c r="Q54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A55" s="2" t="s">
         <v>26</v>
       </c>
@@ -1807,23 +1807,23 @@
       <c r="E55" s="4">
         <v>0.28433000000000003</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="L55" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I55" s="4">
+      <c r="M55" s="4">
         <v>9.2949999999999994E-3</v>
       </c>
-      <c r="J55" s="4">
+      <c r="N55" s="4">
         <v>0.13808300000000001</v>
       </c>
-      <c r="K55" s="4">
+      <c r="O55" s="4">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="L55" s="4">
+      <c r="P55" s="4">
         <v>0.94645400000000002</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A56" s="2" t="s">
         <v>27</v>
       </c>
@@ -1839,90 +1839,90 @@
       <c r="E56" s="4">
         <v>0.13072</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I56" s="4">
+      <c r="M56" s="4">
         <v>-2.1878000000000002E-2</v>
       </c>
-      <c r="J56" s="4">
+      <c r="N56" s="4">
         <v>0.11627700000000001</v>
       </c>
-      <c r="K56" s="4">
+      <c r="O56" s="4">
         <v>-0.188</v>
       </c>
-      <c r="L56" s="4">
+      <c r="P56" s="4">
         <v>0.85110200000000003</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A59" s="9"/>
-      <c r="H59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A59" s="1"/>
+      <c r="L59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A60" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A61" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A62" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H63" s="3" t="s">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L63" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L64" s="1"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="L66" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A67" s="1"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A68" s="2" t="s">
         <v>39</v>
       </c>
@@ -1941,26 +1941,26 @@
       <c r="F68" t="s">
         <v>44</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I68" t="s">
+      <c r="M68" t="s">
         <v>40</v>
       </c>
-      <c r="J68" t="s">
+      <c r="N68" t="s">
         <v>41</v>
       </c>
-      <c r="K68" t="s">
+      <c r="O68" t="s">
         <v>42</v>
       </c>
-      <c r="L68" t="s">
+      <c r="P68" t="s">
         <v>43</v>
       </c>
-      <c r="M68" t="s">
+      <c r="Q68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A69" s="2" t="s">
         <v>45</v>
       </c>
@@ -1979,26 +1979,30 @@
       <c r="F69" s="6">
         <v>0.66669999999999996</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="L69" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I69" t="s">
+      <c r="M69" t="s">
         <v>46</v>
       </c>
-      <c r="J69">
+      <c r="N69">
         <v>0.22</v>
       </c>
-      <c r="K69">
+      <c r="O69">
         <v>0.14699999999999999</v>
       </c>
-      <c r="L69">
+      <c r="P69">
         <v>0.14299999999999999</v>
       </c>
-      <c r="M69" s="6">
+      <c r="Q69" s="6">
         <v>0.66669999999999996</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>47</v>
       </c>
@@ -2017,45 +2021,53 @@
       <c r="F70" s="6">
         <v>0.33329999999999999</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="L70" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="I70" t="s">
+      <c r="M70" t="s">
         <v>46</v>
       </c>
-      <c r="J70">
+      <c r="N70">
         <v>0.21099999999999999</v>
       </c>
-      <c r="K70">
+      <c r="O70">
         <v>0.153</v>
       </c>
-      <c r="L70">
+      <c r="P70">
         <v>0.14399999999999999</v>
       </c>
-      <c r="M70" s="6">
+      <c r="Q70" s="6">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A71" s="3"/>
       <c r="F71" s="6"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.45">
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>28</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>-1.2840133</v>
       </c>
@@ -2083,12 +2095,12 @@
         <v>1.9209324999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>66</v>
       </c>

--- a/Results/Lm_SAR_Results.xlsx
+++ b/Results/Lm_SAR_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Friederike\Documents\GitHub\FruitsAfrica\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688B34E3-CF13-47F5-A41B-2104DE1307C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE9B06-5815-44C0-B589-9CEC6DB0486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-5700" windowWidth="29040" windowHeight="16440" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="13223" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
   <si>
     <t>Call:</t>
   </si>
@@ -348,6 +348,39 @@
   </si>
   <si>
     <t>sqrt_change:factor(accAfrica)1</t>
+  </si>
+  <si>
+    <t>p-value</t>
+  </si>
+  <si>
+    <t>&lt; 2.2e-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moran I statistic standard deviate </t>
+  </si>
+  <si>
+    <t>Expectation</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Moran I statistic</t>
+  </si>
+  <si>
+    <t>raw</t>
+  </si>
+  <si>
+    <t>lm</t>
+  </si>
+  <si>
+    <t>error lm</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Moran's I: 0 = perfect randomness, +1 = perfect clustering</t>
   </si>
 </sst>
 </file>
@@ -356,7 +389,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -413,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -431,7 +464,11 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEBEE6-A5BD-4D33-B188-53E40F35F757}">
-  <dimension ref="A1:R103"/>
+  <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2354,34 +2391,119 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" t="s">
+        <v>108</v>
+      </c>
+      <c r="D107" t="s">
+        <v>113</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" s="3">
+        <v>0.73600849400000001</v>
+      </c>
+      <c r="B108">
+        <v>-8.5470089999999995E-3</v>
+      </c>
+      <c r="C108">
+        <v>3.6754489999999999E-3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>110</v>
+      </c>
+      <c r="E108">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="F108" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109">
+        <v>0.265804188</v>
+      </c>
+      <c r="B109">
+        <v>-8.5470089999999995E-3</v>
+      </c>
+      <c r="C109">
+        <v>3.6186370000000001E-3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>111</v>
+      </c>
+      <c r="E109">
+        <v>4.5606999999999998</v>
+      </c>
+      <c r="F109" s="11">
+        <v>5.0980000000000001E-6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110">
+        <v>0.14843287799999999</v>
+      </c>
+      <c r="B110">
+        <v>-8.5470089999999995E-3</v>
+      </c>
+      <c r="C110">
+        <v>3.6179269999999999E-3</v>
+      </c>
+      <c r="D110" t="s">
+        <v>112</v>
+      </c>
+      <c r="E110">
+        <v>2.6097999999999999</v>
+      </c>
+      <c r="F110">
+        <v>9.0580000000000001E-3</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Lm_SAR_Results.xlsx
+++ b/Results/Lm_SAR_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Friederike\Documents\GitHub\FruitsAfrica\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDFE9B06-5815-44C0-B589-9CEC6DB0486F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14106F45-CF63-493F-9A67-3603183B8B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="13223" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
+    <workbookView xWindow="7020" yWindow="2213" windowWidth="21600" windowHeight="13222" xr2:uid="{933A1E10-8C6C-4D91-BC76-9ECD2451CDAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="114">
   <si>
     <t>Call:</t>
   </si>
@@ -351,9 +351,6 @@
   </si>
   <si>
     <t>p-value</t>
-  </si>
-  <si>
-    <t>&lt; 2.2e-16</t>
   </si>
   <si>
     <t xml:space="preserve">Moran I statistic standard deviate </t>
@@ -468,12 +465,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -484,6 +499,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5E20CCA4-D63A-46CB-84F8-69BA8ADB9C18}" name="Table1" displayName="Table1" ref="A107:F110" totalsRowShown="0">
+  <autoFilter ref="A107:F110" xr:uid="{5E20CCA4-D63A-46CB-84F8-69BA8ADB9C18}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{50EBB261-480B-4A4A-BB70-9CC1951E4FE0}" name="Moran I statistic"/>
+    <tableColumn id="2" xr3:uid="{547DE2FC-8C20-4729-BC31-1621FA4F3EA2}" name="Expectation" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{24136489-E5E0-4CCA-9CDD-C92201BA43B0}" name="Variance" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{29A2EFF7-FC00-49C3-948E-AD096CA21F0E}" name="data" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{91C31BD8-5BF5-4644-BE8D-80C261F4D211}" name="Moran I statistic standard deviate " dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8F107F81-FB36-4579-A500-2F7B5986320B}" name="p-value" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -785,13 +815,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7AEBEE6-A5BD-4D33-B188-53E40F35F757}">
   <dimension ref="A1:R110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:F110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="49" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.86328125" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" customWidth="1"/>
+    <col min="5" max="5" width="29.53125" customWidth="1"/>
     <col min="11" max="11" width="9.06640625" style="7"/>
     <col min="12" max="12" width="23.06640625" customWidth="1"/>
   </cols>
@@ -2423,91 +2456,94 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
         <v>107</v>
       </c>
-      <c r="C107" t="s">
-        <v>108</v>
-      </c>
       <c r="D107" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F107" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A108" s="3">
+      <c r="A108" s="11">
         <v>0.73600849400000001</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="9">
         <v>-8.5470089999999995E-3</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="4">
         <v>3.6754489999999999E-3</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E108" s="4">
+        <v>12.281000000000001</v>
+      </c>
+      <c r="F108" s="8">
+        <v>2.2E-16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" s="4">
+        <v>0.265804188</v>
+      </c>
+      <c r="B109" s="9">
+        <v>-8.5470089999999995E-3</v>
+      </c>
+      <c r="C109" s="4">
+        <v>3.6186370000000001E-3</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E108">
-        <v>12.281000000000001</v>
-      </c>
-      <c r="F108" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A109">
-        <v>0.265804188</v>
-      </c>
-      <c r="B109">
+      <c r="E109" s="4">
+        <v>4.5606999999999998</v>
+      </c>
+      <c r="F109" s="8">
+        <v>5.0980000000000001E-6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A110" s="4">
+        <v>0.14843287799999999</v>
+      </c>
+      <c r="B110" s="9">
         <v>-8.5470089999999995E-3</v>
       </c>
-      <c r="C109">
-        <v>3.6186370000000001E-3</v>
-      </c>
-      <c r="D109" t="s">
+      <c r="C110" s="4">
+        <v>3.6179269999999999E-3</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E109">
-        <v>4.5606999999999998</v>
-      </c>
-      <c r="F109" s="11">
-        <v>5.0980000000000001E-6</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A110">
-        <v>0.14843287799999999</v>
-      </c>
-      <c r="B110">
-        <v>-8.5470089999999995E-3</v>
-      </c>
-      <c r="C110">
-        <v>3.6179269999999999E-3</v>
-      </c>
-      <c r="D110" t="s">
-        <v>112</v>
-      </c>
-      <c r="E110">
+      <c r="E110" s="4">
         <v>2.6097999999999999</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="8">
         <v>9.0580000000000001E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>